--- a/data/trans_orig/P27F_4-Urba-trans_orig.xlsx
+++ b/data/trans_orig/P27F_4-Urba-trans_orig.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -543,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según recibimiento de atención de salud mental (consulta al psicólogo) cuando se necesitaba en Mz1 (tasa de respuesta: 99,8%)</t>
+          <t>Población según recibimiento de atención de salud mental (consulta al psicólogo) cuando se necesitaba en M5 (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -841,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>463</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>205552</t>
+          <t>1451122</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>198634</t>
+          <t>1396294</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>210023</t>
+          <t>1502996</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>88,72%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>85,37%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>536</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>197684</t>
+          <t>1529376</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>190715</t>
+          <t>1476236</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>204079</t>
+          <t>1575572</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>83,19%</t>
+          <t>85,26%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>80,26%</t>
+          <t>82,29%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>85,88%</t>
+          <t>87,83%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1321</t>
+          <t>999</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>403237</t>
+          <t>2980498</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>393952</t>
+          <t>2904122</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>410691</t>
+          <t>3049982</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>86,43%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>84,44%</t>
+          <t>84,68%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,02%</t>
+          <t>88,93%</t>
         </is>
       </c>
     </row>
@@ -954,107 +956,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12464</t>
+          <t>108518</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9364</t>
+          <t>72708</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17176</t>
+          <t>153473</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18327</t>
+          <t>168487</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14101</t>
+          <t>130893</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>22889</t>
+          <t>209094</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>102</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>30791</t>
+          <t>277005</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>24892</t>
+          <t>230150</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>36879</t>
+          <t>334180</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>9,74%</t>
         </is>
       </c>
     </row>
@@ -1067,107 +1069,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3308</t>
+          <t>32209</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1512</t>
+          <t>11324</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5910</t>
+          <t>71339</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6851</t>
+          <t>59552</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4116</t>
+          <t>36472</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10512</t>
+          <t>91209</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10159</t>
+          <t>91761</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>6980</t>
+          <t>58416</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>15129</t>
+          <t>137388</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -1180,107 +1182,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7614</t>
+          <t>43820</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>22246</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13118</t>
+          <t>74667</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14772</t>
+          <t>36469</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11507</t>
+          <t>18254</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19630</t>
+          <t>70999</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>22386</t>
+          <t>80289</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>17729</t>
+          <t>50721</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>28799</t>
+          <t>121560</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>3,54%</t>
         </is>
       </c>
     </row>
@@ -1293,22 +1295,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>516</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>228939</t>
+          <t>1635669</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>228939</t>
+          <t>1635669</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>228939</t>
+          <t>1635669</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1328,22 +1330,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>637</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>237634</t>
+          <t>1793883</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>237634</t>
+          <t>1793883</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>237634</t>
+          <t>1793883</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1363,22 +1365,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>466574</t>
+          <t>3429552</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>466574</t>
+          <t>3429552</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>466574</t>
+          <t>3429552</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1523,107 +1525,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>66210</t>
+          <t>1298243</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62919</t>
+          <t>1261037</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68382</t>
+          <t>1324476</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>91,56%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>428</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56839</t>
+          <t>1178611</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53521</t>
+          <t>1130534</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59228</t>
+          <t>1220092</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>86,98%</t>
+          <t>85,47%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>81,9%</t>
+          <t>81,98%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,63%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>821</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>123050</t>
+          <t>2476854</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>118977</t>
+          <t>2420750</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>126848</t>
+          <t>2525465</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>89,86%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>86,75%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>91,62%</t>
         </is>
       </c>
     </row>
@@ -1636,107 +1638,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4032</t>
+          <t>55994</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>33584</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6710</t>
+          <t>89469</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5092</t>
+          <t>117719</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3125</t>
+          <t>86843</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>8032</t>
+          <t>151665</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>11,0%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>9124</t>
+          <t>173714</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>6377</t>
+          <t>132671</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>12615</t>
+          <t>218666</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>7,93%</t>
         </is>
       </c>
     </row>
@@ -1749,107 +1751,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>11185</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2697</t>
+          <t>28016</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>35076</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>18355</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3471</t>
+          <t>63897</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>46261</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>27634</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>4151</t>
+          <t>74801</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,71%</t>
         </is>
       </c>
     </row>
@@ -1862,107 +1864,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>11925</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2542</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2292</t>
+          <t>26142</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2372</t>
+          <t>47640</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>30109</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4464</t>
+          <t>76239</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>59565</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1457</t>
+          <t>38883</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>5447</t>
+          <t>88724</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,22%</t>
         </is>
       </c>
     </row>
@@ -1975,22 +1977,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71795</t>
+          <t>1377347</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>71795</t>
+          <t>1377347</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71795</t>
+          <t>1377347</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2010,22 +2012,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>507</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>65351</t>
+          <t>1379046</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>65351</t>
+          <t>1379046</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>65351</t>
+          <t>1379046</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2045,22 +2047,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>926</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>137146</t>
+          <t>2756393</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>137146</t>
+          <t>2756393</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>137146</t>
+          <t>2756393</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,7 +2099,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -2112,7 +2114,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -2132,7 +2134,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -2147,7 +2149,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
@@ -2167,7 +2169,7 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
@@ -2182,7 +2184,7 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
@@ -2205,107 +2207,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>405524</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>380139</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>417224</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,91%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>364567</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>338220</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>384097</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,0%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,57%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,77%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>204</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>770090</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>737145</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>793041</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,55%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,27%</t>
         </is>
       </c>
     </row>
@@ -2318,107 +2320,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11450</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>34773</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>26911</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11956</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>50851</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>38360</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>19851</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>66260</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,96%</t>
         </is>
       </c>
     </row>
@@ -2431,107 +2433,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5841</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>20762</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6604</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>21837</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12445</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3415</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>30423</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,65%</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2551,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -2564,7 +2566,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -2579,72 +2581,72 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11556</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2552</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>28166</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11556</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>27039</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -2657,107 +2659,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>422814</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>422814</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>422814</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>409638</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>409638</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>409638</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>223</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>832452</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>832452</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>832452</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -2887,107 +2889,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>952</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>271763</t>
+          <t>3154889</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>265173</t>
+          <t>3085908</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>276847</t>
+          <t>3214180</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>90,37%</t>
+          <t>91,82%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>88,18%</t>
+          <t>89,82%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>254523</t>
+          <t>3072553</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>246905</t>
+          <t>2991871</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>261048</t>
+          <t>3142424</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>84,01%</t>
+          <t>85,76%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>81,49%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>86,16%</t>
+          <t>87,71%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>526286</t>
+          <t>6227442</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>517700</t>
+          <t>6130268</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>535610</t>
+          <t>6316151</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>87,17%</t>
+          <t>88,73%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>85,75%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>88,72%</t>
+          <t>89,99%</t>
         </is>
       </c>
     </row>
@@ -3005,102 +3007,102 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>16497</t>
+          <t>175962</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>12624</t>
+          <t>132693</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>21090</t>
+          <t>231857</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>123</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>23419</t>
+          <t>313117</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>18793</t>
+          <t>254916</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>29104</t>
+          <t>373980</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>178</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>39916</t>
+          <t>489079</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>33762</t>
+          <t>417094</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>47576</t>
+          <t>564420</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>8,04%</t>
         </is>
       </c>
     </row>
@@ -3118,22 +3120,22 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4248</t>
+          <t>49235</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>26078</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7329</t>
+          <t>88981</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -3143,77 +3145,77 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7898</t>
+          <t>101232</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>68915</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>11768</t>
+          <t>148272</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>48</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>12146</t>
+          <t>150466</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>8569</t>
+          <t>111804</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>17329</t>
+          <t>202878</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -3226,107 +3228,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>8226</t>
+          <t>55745</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5370</t>
+          <t>32540</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12988</t>
+          <t>91257</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>17144</t>
+          <t>95665</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>12933</t>
+          <t>67926</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>22021</t>
+          <t>140233</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>25371</t>
+          <t>151410</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>20113</t>
+          <t>111950</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>31490</t>
+          <t>204416</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -3339,6 +3341,2973 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3435830</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3435830</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3435830</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3582567</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>3582567</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3582567</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>2302</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>7018397</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>7018397</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>7018397</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según recibimiento de atención de salud mental (consulta al psicólogo) cuando se necesitaba en Mz1 (tasa de respuesta: 99,8%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>205552</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>198634</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>210023</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>89,78%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>86,76%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>91,74%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>197684</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>190715</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>204079</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>83,19%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>80,26%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>85,88%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1321</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>403237</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>393952</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>410691</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>86,43%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>84,44%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>88,02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12464</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9364</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17176</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,5%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18327</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14101</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22889</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>30791</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>24892</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>36879</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>6,6%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>7,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3308</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1512</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5910</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6851</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4116</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10512</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>10159</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6980</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>15129</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7614</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4763</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13118</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14772</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11507</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19630</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6,22%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>22386</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>17729</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>28799</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>6,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>228939</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>228939</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>228939</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>237634</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>237634</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>237634</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>466574</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>466574</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>466574</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>66210</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>62919</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>68382</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>92,22%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>87,64%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>95,25%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>56839</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>53521</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>59228</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>86,98%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>81,9%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>90,63%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>123050</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>118977</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>126848</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>89,72%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>86,75%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>92,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2331</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6710</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5092</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3125</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8032</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,78%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>12,29%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>9124</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>6377</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>12615</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>940</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2697</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3471</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5,31%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>4151</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2292</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2372</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4464</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>6,83%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2985</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1457</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>5447</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>3,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>71795</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>71795</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>71795</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>65351</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>65351</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>65351</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>137146</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>137146</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>137146</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>271763</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>265173</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>276847</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>90,37%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>88,18%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>92,06%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>254523</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>246905</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>261048</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>84,01%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>81,49%</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>86,16%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1738</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>526286</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>517700</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>535610</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>87,17%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>85,75%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>88,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>16497</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>12624</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>21090</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5,49%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>23419</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>18793</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>29104</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>9,61%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>39916</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>33762</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>47576</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2275</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>7329</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>7898</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>4975</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>11768</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>12146</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>8569</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>17329</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>8226</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>5370</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>12988</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1,79%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>17144</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>12933</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>22021</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>25371</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>20113</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>31490</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
           <t>915</t>
         </is>
       </c>
@@ -3425,6 +6394,2973 @@
       <c r="T27" s="2" t="inlineStr">
         <is>
           <t>603719</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según recibimiento de atención de salud mental (consulta al psicólogo) cuando se necesitaba en Mz2 (tasa de respuesta: 99,67%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>202432</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>196670</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>207535</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>89,43%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>86,88%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>91,68%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>190001</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>182993</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>195829</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>80,47%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>77,5%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>82,94%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1298</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>392433</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>383296</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>399971</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>84,85%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>82,88%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>86,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15805</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11860</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>20763</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6,98%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28864</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24159</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>34480</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>14,6%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>44669</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>38017</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>51849</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>9,66%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2758</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5618</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8288</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5525</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11852</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>11046</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>8086</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>15242</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5372</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3101</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8546</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8964</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6237</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12757</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>14337</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10518</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>18557</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>660</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>226368</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>226368</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>226368</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>236117</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>236117</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>236117</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>462485</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>462485</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>462485</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>64642</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>61412</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>67157</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>89,12%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>84,66%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>92,58%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>57320</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>53517</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>60008</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>85,66%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>79,97%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>89,67%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>121962</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>117621</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>125868</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>87,46%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>84,34%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>90,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5189</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3197</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7854</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,83%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7025</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4718</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10323</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,5%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>15,43%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>12214</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>8959</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>16064</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>11,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1056</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2703</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2878</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2189</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1650</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3738</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1441</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3245</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>3090</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1647</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>5903</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>4,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>72536</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>72536</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>72536</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>66919</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>66919</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>66919</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>139455</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>139455</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>139455</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>267075</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>259955</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>272359</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>89,35%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>86,97%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>91,12%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>247321</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>239226</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>254260</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>81,61%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>78,94%</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>83,9%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1709</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>514395</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>504749</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>522981</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>85,46%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>83,85%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>86,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>20994</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>16829</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>27062</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>35889</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>30491</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>42212</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>56883</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>49411</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>64211</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>3814</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2048</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>6841</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>9421</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>6628</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>13288</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>13235</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>9579</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>18243</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>7022</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>10770</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>10405</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>7362</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>14014</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>4,62%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>17427</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>13537</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>22689</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>298905</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>298905</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>298905</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>303036</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>303036</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>303036</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>601940</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>601940</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>601940</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
